--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81778.23566941981</v>
+        <v>-83665.81718582152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.72949759129126</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>113.6496344454573</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,10 +707,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>163.8608514409109</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>176.8585984528613</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>298.140361926462</v>
       </c>
       <c r="G5" t="n">
-        <v>107.0956989483099</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>9.220846587375998</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>161.6676065732858</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>139.1289065603847</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.72101765531077</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>152.4625225902371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>124.1444579481074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.8952567231498</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.61524188852282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>135.594747687851</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>149.079966771951</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>62.34033882261143</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>75.57809216555842</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.2925104849742</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>101.2130831850512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>118.4898845065118</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>77.97531942127409</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>57.82246408730591</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.17624413234309</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463203</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539634</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1670.695888779115</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1301.733371838703</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>495.9353123353287</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404537</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.355031464125</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.089332857375</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="E5" t="n">
-        <v>900.3010802591307</v>
+        <v>522.4842426204839</v>
       </c>
       <c r="F5" t="n">
-        <v>489.3151754695231</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404537</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404537</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1717.152892125119</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.190375184708</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="D8" t="n">
-        <v>1348.190375184708</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="E8" t="n">
-        <v>962.4021225864633</v>
+        <v>1176.892919767589</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>765.9070149779816</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>347.9432068761685</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656313</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.618650386199</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.152892125119</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1717.152892125119</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694735</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694735</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259434</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,46 +5203,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471169</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S13" t="n">
-        <v>1262.442724747902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T13" t="n">
-        <v>1262.442724747902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="U13" t="n">
-        <v>1262.442724747902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>1262.442724747902</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>973.0255547109412</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>973.0255547109412</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.0255547109412</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1209.499100520942</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.8029164824586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C19" t="n">
-        <v>247.8029164824586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>247.8029164824586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>247.8029164824586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>247.8029164824586</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609666</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609666</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240061</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X19" t="n">
-        <v>468.5954956259887</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.8029164824586</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.5883316929525</v>
+        <v>434.3285960683723</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344999</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364826</v>
+        <v>836.7696400421421</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929525</v>
+        <v>615.977060898612</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>303.4575213834692</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>550.2226492899333</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698951</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>1141.996344791358</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>914.0067938933407</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.312093633105</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.312093633105</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383761</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6385,19 +6385,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>931.1046727766351</v>
+        <v>835.4163915387941</v>
       </c>
       <c r="W28" t="n">
-        <v>931.1046727766351</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X28" t="n">
-        <v>931.1046727766351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.312093633105</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,49 +6446,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>2013.406634128704</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2292.946699347402</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541574</v>
+        <v>583.6915747572971</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076213</v>
+        <v>525.2850453761801</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766563</v>
+        <v>430.9292712452151</v>
       </c>
       <c r="E31" t="n">
-        <v>300.760630075634</v>
+        <v>338.7770429441929</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1897.564200296132</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1897.564200296132</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.539650367009</v>
+        <v>1712.787274970148</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.171876861938</v>
+        <v>1479.419501465077</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.248253937422</v>
+        <v>1280.495878540562</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.591949181832</v>
+        <v>1046.839573784972</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651857</v>
+        <v>874.6108881683251</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030263</v>
+        <v>709.5791743061659</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798298</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,34 +7327,34 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525404</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>474.7746905116418</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>721.5398184181058</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1028.859951698067</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415605</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>182.0340742867951</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>392.1113620226436</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>15.83804904622806</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>20.63789864135481</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>38.86002301949887</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>219.9778004203346</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>444.4889386861659</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>202.5230052237939</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>148.2747143566556</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.8856946302409</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>73.77635203549582</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542758</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2167382934145</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>85.95281337053825</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>17.41360169142649</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>224.1826595139796</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>91.66872893306942</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,10 +24181,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388538</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>185.3099151515398</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518775</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>174.1623239025539</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>54.22110038276477</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.58485164289263</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-5.775380301785823e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1160488.798463051</v>
+        <v>1160488.798463052</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
@@ -26323,7 +26323,7 @@
         <v>273720.3418163963</v>
       </c>
       <c r="F2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
         <v>273720.3418163963</v>
@@ -26335,7 +26335,7 @@
         <v>273720.3418163963</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163963</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
         <v>284775.4961416892</v>
@@ -26350,10 +26350,10 @@
         <v>287364.6194524991</v>
       </c>
       <c r="O2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="P2" t="n">
         <v>287364.6194524992</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287364.619452499</v>
       </c>
     </row>
     <row r="3">
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687068</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26482,7 +26482,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551095.2056119789</v>
+        <v>-551095.2056119788</v>
       </c>
       <c r="C6" t="n">
         <v>38872.67360256551</v>
       </c>
       <c r="D6" t="n">
-        <v>38872.67360256551</v>
+        <v>38872.67360256557</v>
       </c>
       <c r="E6" t="n">
-        <v>-365601.6281960872</v>
+        <v>-365699.0873220593</v>
       </c>
       <c r="F6" t="n">
-        <v>159558.4082808089</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="G6" t="n">
-        <v>159558.408280809</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="H6" t="n">
-        <v>159558.4082808089</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="I6" t="n">
-        <v>159558.4082808088</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="J6" t="n">
-        <v>-16864.81091178373</v>
+        <v>-16962.27003775629</v>
       </c>
       <c r="K6" t="n">
-        <v>103645.4522075535</v>
+        <v>103626.9584696191</v>
       </c>
       <c r="L6" t="n">
         <v>134713.2120034159</v>
       </c>
       <c r="M6" t="n">
-        <v>10255.10357044541</v>
+        <v>10255.10357044557</v>
       </c>
       <c r="N6" t="n">
         <v>145056.1188042826</v>
@@ -26561,7 +26561,7 @@
         <v>145056.1188042826</v>
       </c>
       <c r="P6" t="n">
-        <v>100893.5135014367</v>
+        <v>100893.5135014369</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,25 +26741,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.9535440293917</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>300.1345355753376</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.97112874102643</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>109.6643998837297</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>108.7356838152494</v>
       </c>
       <c r="G5" t="n">
-        <v>306.6884710724851</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>40.32635200869792</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>245.2084391684257</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>184.7938662039725</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>166.1109625266265</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>133.8193516517406</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>492.4584513372614</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789704</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>166.4134876341674</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>353.8324720393676</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>245.9534379510236</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>553.1723738183475</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,10 +37400,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>484.886707464902</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>355.3681292881803</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38096,7 +38096,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>339.4611332181801</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
